--- a/biology/Médecine/Institut_de_Psychiatrie_(Brugmann)/Institut_de_Psychiatrie_(Brugmann).xlsx
+++ b/biology/Médecine/Institut_de_Psychiatrie_(Brugmann)/Institut_de_Psychiatrie_(Brugmann).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut de Psychiatrie est le service psychiatrique de l'hôpital Brugmann, à Bruxelles.
 Il a été construit à la fin des années 1920 et a ouvert ses portes en 1931. Composé de deux pavillons, l'Institut de Psychiatrie remplace l'Asile-dépôt de l'hôpital Saint-Jean. Il accueille environ 120 patients, hommes et femmes.
-Dans les années 1980, les anciens bâtiments ont été détruits et un nouveau ensemble pavillonnaire a vu le jour[1].
+Dans les années 1980, les anciens bâtiments ont été détruits et un nouveau ensemble pavillonnaire a vu le jour.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste des directeurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Guillaume Vermeylen (1931-1943)
 Justinien Heernu ff[Quoi ?] (1943-1945)
